--- a/urls_20180727.xlsx
+++ b/urls_20180727.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF80315-4F0E-0143-AEA3-FC25378AFE4B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA426B9E-B978-463B-A951-7FA37ED53E89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +575,12 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,9 +619,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -631,7 +640,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,17 +962,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -971,13 +980,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -985,13 +994,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -999,13 +1008,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -1013,13 +1022,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1027,13 +1036,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1041,13 +1050,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1055,13 +1064,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1069,13 +1078,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1092,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1091,13 +1100,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1105,13 +1114,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1127,13 +1136,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1141,13 +1150,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1155,13 +1164,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -1169,13 +1178,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
@@ -1183,13 +1192,13 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
+    <row r="33" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -1197,13 +1206,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
+    <row r="34" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
+    <row r="35" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1211,13 +1220,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
+    <row r="36" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
+    <row r="37" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>19</v>
       </c>
@@ -1225,13 +1234,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
+    <row r="38" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
+    <row r="39" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>20</v>
       </c>
@@ -1239,13 +1248,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
+    <row r="40" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
+    <row r="41" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -1253,13 +1262,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
+    <row r="42" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
+    <row r="43" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>22</v>
       </c>
@@ -1267,13 +1276,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
+    <row r="44" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
+    <row r="45" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>23</v>
       </c>
@@ -1281,13 +1290,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
+    <row r="46" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
+    <row r="47" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
+    <row r="48" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>25</v>
       </c>
@@ -1303,13 +1312,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
+    <row r="49" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
+    <row r="50" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
@@ -1317,13 +1326,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
+    <row r="51" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
+    <row r="52" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>27</v>
       </c>
@@ -1331,13 +1340,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
+    <row r="53" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
+    <row r="54" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
+    <row r="55" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
@@ -1353,13 +1362,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
+    <row r="56" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
+    <row r="57" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>30</v>
       </c>
@@ -1367,13 +1376,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
+    <row r="58" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
+    <row r="59" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>31</v>
       </c>
@@ -1381,13 +1390,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
+    <row r="60" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
+    <row r="61" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>32</v>
       </c>
@@ -1395,13 +1404,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
+    <row r="62" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
+    <row r="63" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>33</v>
       </c>
@@ -1409,13 +1418,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
+    <row r="64" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="20" customHeight="1">
+    <row r="65" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>34</v>
       </c>
@@ -1423,13 +1432,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="20" customHeight="1">
+    <row r="66" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="20" customHeight="1">
+    <row r="67" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>35</v>
       </c>
@@ -1437,13 +1446,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="20" customHeight="1">
+    <row r="68" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="20" customHeight="1">
+    <row r="69" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>36</v>
       </c>
@@ -1451,13 +1460,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="20" customHeight="1">
+    <row r="70" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="20" customHeight="1">
+    <row r="71" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>37</v>
       </c>
@@ -1465,55 +1474,55 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="20" customHeight="1">
+    <row r="72" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="20" customHeight="1">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="20" customHeight="1">
+    <row r="74" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="20" customHeight="1">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="20" customHeight="1">
+    <row r="76" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="20" customHeight="1">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="20" customHeight="1">
+    <row r="78" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="20" customHeight="1">
+    <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>41</v>
       </c>
@@ -1521,13 +1530,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
+    <row r="80" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="20" customHeight="1">
+    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>42</v>
       </c>
@@ -1535,13 +1544,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="20" customHeight="1">
+    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="20" customHeight="1">
+    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>43</v>
       </c>
@@ -1549,13 +1558,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="20" customHeight="1">
+    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="20" customHeight="1">
+    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>44</v>
       </c>
@@ -1563,13 +1572,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="20" customHeight="1">
+    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="20" customHeight="1">
+    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>45</v>
       </c>
@@ -1577,13 +1586,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="20" customHeight="1">
+    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="20" customHeight="1">
+    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -1591,7 +1600,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="20" customHeight="1">
+    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>47</v>
       </c>
@@ -1599,13 +1608,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="20" customHeight="1">
+    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="20" customHeight="1">
+    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>48</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="20" customHeight="1">
+    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>49</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="20" customHeight="1">
+    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>50</v>
       </c>
@@ -1629,13 +1638,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="20" customHeight="1">
+    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="20" customHeight="1">
+    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>51</v>
       </c>
@@ -1643,13 +1652,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="20" customHeight="1">
+    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="20" customHeight="1">
+    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>52</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="20" customHeight="1">
+    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
     </row>
@@ -1674,7 +1683,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1687,7 +1696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/urls_20180727.xlsx
+++ b/urls_20180727.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA426B9E-B978-463B-A951-7FA37ED53E89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1E8F335-F239-44D6-90A8-AA92C7D0B542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +581,12 @@
       <color theme="1"/>
       <name val="等线"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -602,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,6 +626,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1523,7 +1532,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -1537,7 +1546,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B81" s="2" t="s">

--- a/urls_20180727.xlsx
+++ b/urls_20180727.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E1E8F335-F239-44D6-90A8-AA92C7D0B542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4800D22B-6194-427C-A5C5-AEC2B3776E80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1560,7 +1560,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="2" t="s">

--- a/urls_20180727.xlsx
+++ b/urls_20180727.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4800D22B-6194-427C-A5C5-AEC2B3776E80}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00690496-283A-4CA0-A7A9-93493874C43C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +587,11 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -608,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,6 +634,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1574,7 +1582,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -1588,7 +1596,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -1602,7 +1610,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -1610,7 +1618,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -1624,7 +1632,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -1632,7 +1640,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B93" s="2" t="s">

--- a/urls_20180727.xlsx
+++ b/urls_20180727.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00690496-283A-4CA0-A7A9-93493874C43C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51A2CEB7-FF8C-48B2-957F-D71ED0A81362}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +592,14 @@
       <sz val="10"/>
       <name val="等线"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -610,10 +618,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -639,9 +648,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -980,7 +993,7 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1648,7 +1661,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -1662,21 +1675,21 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -1689,8 +1702,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B96" r:id="rId1" xr:uid="{DFFFF59E-61EB-4750-B6D1-0EF462BCAC4B}"/>
+    <hyperlink ref="B97" r:id="rId2" xr:uid="{96F8260C-7F5F-4A15-A768-398A9A7AEBC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
